--- a/SourceCode/dams/templates/BatStateU-DOC-AF-03_Individual Performance Commitment and Review (IPCR)_Rev 01.xlsx
+++ b/SourceCode/dams/templates/BatStateU-DOC-AF-03_Individual Performance Commitment and Review (IPCR)_Rev 01.xlsx
@@ -10,7 +10,7 @@
     <sheet name="IPCR BLANK FORM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPCR BLANK FORM'!$A$1:$N$50</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPCR BLANK FORM'!$A$1:$N$40</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
@@ -250,7 +250,7 @@
     <numFmt numFmtId="176" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="37">
+  <fonts count="36">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -296,6 +296,13 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <b/>
       <sz val="12"/>
       <name val="Times New Roman"/>
       <charset val="134"/>
@@ -334,13 +341,6 @@
       <sz val="10"/>
       <name val="Times New Roman"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -485,12 +485,6 @@
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="8"/>
-      <name val="Times New Roman"/>
-      <charset val="134"/>
     </font>
     <font>
       <b/>
@@ -1218,19 +1212,19 @@
   </borders>
   <cellStyleXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="176" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="44" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="177" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="42" fontId="14" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1239,7 +1233,7 @@
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="34" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1362,9 +1356,9 @@
     <xf numFmtId="0" fontId="32" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="34" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="133">
+  <cellXfs count="136">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1441,16 +1435,22 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1468,88 +1468,88 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="18" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="2" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="5" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="19" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1565,18 +1565,21 @@
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify"/>
@@ -1585,7 +1588,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
@@ -1609,10 +1612,10 @@
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1649,25 +1652,25 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1682,7 +1685,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="29" xfId="49" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1691,13 +1694,13 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="11" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="12" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1792,6 +1795,50 @@
     <xdr:pic>
       <xdr:nvPicPr>
         <xdr:cNvPr id="6" name="Picture 5"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="306705" y="41910"/>
+          <a:ext cx="857250" cy="804545"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>306914</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>42332</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>1164164</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>846877</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -2112,8 +2159,8 @@
   <sheetPr/>
   <dimension ref="A1:O52"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScalePageLayoutView="55" zoomScaleNormal="100" topLeftCell="A26" workbookViewId="0">
-      <selection activeCell="C39" sqref="C39:E39"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScalePageLayoutView="55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A19" sqref="A19:E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15"/>
@@ -2130,7 +2177,7 @@
     <col min="15" max="15" width="15.2857142857143" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="68.1" customHeight="1" spans="1:14">
+    <row r="1" customFormat="1" ht="68.1" customHeight="1" spans="1:14">
       <c r="A1" s="1"/>
       <c r="B1" s="2" t="s">
         <v>0</v>
@@ -2152,7 +2199,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" ht="30" customHeight="1" spans="1:14">
+    <row r="2" customFormat="1" ht="30" customHeight="1" spans="1:14">
       <c r="A2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2168,9 +2215,9 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="91"/>
-    </row>
-    <row r="3" ht="18.75" spans="1:14">
+      <c r="N2" s="94"/>
+    </row>
+    <row r="3" customFormat="1" ht="18.75" spans="1:14">
       <c r="A3" s="5"/>
       <c r="B3" s="6"/>
       <c r="C3" s="6"/>
@@ -2184,9 +2231,9 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="92"/>
-    </row>
-    <row r="4" spans="1:14">
+      <c r="N3" s="95"/>
+    </row>
+    <row r="4" customFormat="1" spans="1:14">
       <c r="A4" s="7"/>
       <c r="B4" s="8"/>
       <c r="C4" s="8"/>
@@ -2200,7 +2247,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="93"/>
+      <c r="N4" s="96"/>
     </row>
     <row r="5" ht="49.5" customHeight="1" spans="1:15">
       <c r="A5" s="9" t="s">
@@ -2218,8 +2265,8 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="94"/>
-      <c r="O5" s="95"/>
+      <c r="N5" s="97"/>
+      <c r="O5" s="98"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="11"/>
@@ -2235,8 +2282,8 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="95"/>
+      <c r="N6" s="86"/>
+      <c r="O6" s="98"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="11"/>
@@ -2250,10 +2297,10 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="96"/>
-      <c r="M7" s="96"/>
-      <c r="N7" s="97"/>
-      <c r="O7" s="95"/>
+      <c r="L7" s="99"/>
+      <c r="M7" s="99"/>
+      <c r="N7" s="100"/>
+      <c r="O7" s="98"/>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="1:15">
       <c r="A8" s="11"/>
@@ -2267,12 +2314,12 @@
       <c r="I8" s="13"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="98" t="s">
+      <c r="L8" s="101" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="98"/>
-      <c r="N8" s="99"/>
-      <c r="O8" s="95"/>
+      <c r="M8" s="101"/>
+      <c r="N8" s="102"/>
+      <c r="O8" s="98"/>
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="1:15">
       <c r="A9" s="11"/>
@@ -2289,9 +2336,9 @@
       <c r="L9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="100"/>
-      <c r="N9" s="101"/>
-      <c r="O9" s="95"/>
+      <c r="M9" s="103"/>
+      <c r="N9" s="104"/>
+      <c r="O9" s="98"/>
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="1:15">
       <c r="A10" s="7"/>
@@ -2312,9 +2359,9 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="100"/>
-      <c r="N10" s="101"/>
-      <c r="O10" s="95"/>
+      <c r="M10" s="103"/>
+      <c r="N10" s="104"/>
+      <c r="O10" s="98"/>
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="1:15">
       <c r="A11" s="7"/>
@@ -2336,8 +2383,8 @@
       <c r="K11" s="8"/>
       <c r="L11" s="13"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="93"/>
-      <c r="O11" s="95"/>
+      <c r="N11" s="96"/>
+      <c r="O11" s="98"/>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="1:15">
       <c r="A12" s="7"/>
@@ -2359,8 +2406,8 @@
       <c r="K12" s="8"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="95"/>
+      <c r="N12" s="105"/>
+      <c r="O12" s="98"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" spans="1:15">
       <c r="A13" s="7"/>
@@ -2377,13 +2424,13 @@
       <c r="H13" s="18">
         <v>2</v>
       </c>
-      <c r="I13" s="103"/>
+      <c r="I13" s="106"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="102"/>
-      <c r="O13" s="95"/>
+      <c r="N13" s="105"/>
+      <c r="O13" s="98"/>
     </row>
     <row r="14" ht="12.75" customHeight="1" spans="1:15">
       <c r="A14" s="7"/>
@@ -2400,13 +2447,13 @@
       <c r="H14" s="18">
         <v>1</v>
       </c>
-      <c r="I14" s="103"/>
+      <c r="I14" s="106"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="102"/>
-      <c r="O14" s="95"/>
+      <c r="N14" s="105"/>
+      <c r="O14" s="98"/>
     </row>
     <row r="15" ht="8.25" customHeight="1" spans="1:15">
       <c r="A15" s="7"/>
@@ -2422,8 +2469,8 @@
       <c r="K15" s="8"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="102"/>
-      <c r="O15" s="95"/>
+      <c r="N15" s="105"/>
+      <c r="O15" s="98"/>
     </row>
     <row r="16" ht="6" customHeight="1" spans="1:15">
       <c r="A16" s="7"/>
@@ -2439,8 +2486,8 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="93"/>
-      <c r="O16" s="95"/>
+      <c r="N16" s="96"/>
+      <c r="O16" s="98"/>
     </row>
     <row r="17" ht="25.5" customHeight="1" spans="1:15">
       <c r="A17" s="19" t="s">
@@ -2457,15 +2504,15 @@
       <c r="H17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="104"/>
-      <c r="J17" s="104"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="105"/>
-      <c r="N17" s="106" t="s">
+      <c r="I17" s="107"/>
+      <c r="J17" s="107"/>
+      <c r="K17" s="107"/>
+      <c r="L17" s="107"/>
+      <c r="M17" s="108"/>
+      <c r="N17" s="109" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="95"/>
+      <c r="O17" s="98"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="25"/>
@@ -2481,8 +2528,8 @@
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
       <c r="M18" s="27"/>
-      <c r="N18" s="107"/>
-      <c r="O18" s="95"/>
+      <c r="N18" s="110"/>
+      <c r="O18" s="98"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="30"/>
@@ -2493,13 +2540,13 @@
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
       <c r="H19" s="35"/>
-      <c r="I19" s="96"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="96"/>
-      <c r="L19" s="96"/>
-      <c r="M19" s="97"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="95"/>
+      <c r="I19" s="99"/>
+      <c r="J19" s="99"/>
+      <c r="K19" s="99"/>
+      <c r="L19" s="99"/>
+      <c r="M19" s="100"/>
+      <c r="N19" s="111"/>
+      <c r="O19" s="98"/>
     </row>
     <row r="20" spans="1:15">
       <c r="A20" s="36" t="s">
@@ -2519,10 +2566,10 @@
       <c r="K20" s="37"/>
       <c r="L20" s="37"/>
       <c r="M20" s="38"/>
-      <c r="N20" s="109"/>
-      <c r="O20" s="95"/>
-    </row>
-    <row r="21" spans="1:14">
+      <c r="N20" s="112"/>
+      <c r="O20" s="98"/>
+    </row>
+    <row r="21" customFormat="1" spans="1:14">
       <c r="A21" s="25"/>
       <c r="B21" s="26"/>
       <c r="C21" s="26"/>
@@ -2538,7 +2585,7 @@
       <c r="M21" s="26"/>
       <c r="N21" s="27"/>
     </row>
-    <row r="22" ht="15.75" customHeight="1" spans="1:14">
+    <row r="22" customFormat="1" ht="15.75" customHeight="1" spans="1:14">
       <c r="A22" s="41" t="s">
         <v>22</v>
       </c>
@@ -2553,18 +2600,18 @@
       </c>
       <c r="G22" s="44"/>
       <c r="H22" s="45"/>
-      <c r="I22" s="110" t="s">
+      <c r="I22" s="113" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="111"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="112"/>
+      <c r="J22" s="114"/>
+      <c r="K22" s="114"/>
+      <c r="L22" s="115"/>
       <c r="M22" s="41" t="s">
         <v>26</v>
       </c>
       <c r="N22" s="42"/>
     </row>
-    <row r="23" ht="23.45" customHeight="1" spans="1:14">
+    <row r="23" customFormat="1" ht="23.45" customHeight="1" spans="1:14">
       <c r="A23" s="46"/>
       <c r="B23" s="47"/>
       <c r="C23" s="48"/>
@@ -2573,22 +2620,22 @@
       <c r="F23" s="48"/>
       <c r="G23" s="49"/>
       <c r="H23" s="50"/>
-      <c r="I23" s="113" t="s">
+      <c r="I23" s="116" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="114" t="s">
+      <c r="J23" s="117" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="114" t="s">
+      <c r="K23" s="117" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="115" t="s">
+      <c r="L23" s="118" t="s">
         <v>30</v>
       </c>
       <c r="M23" s="46"/>
       <c r="N23" s="47"/>
     </row>
-    <row r="24" ht="19.5" customHeight="1" spans="1:14">
+    <row r="24" customFormat="1" ht="19.5" customHeight="1" spans="1:14">
       <c r="A24" s="51" t="s">
         <v>31</v>
       </c>
@@ -2604,9 +2651,9 @@
       <c r="K24" s="53"/>
       <c r="L24" s="53"/>
       <c r="M24" s="53"/>
-      <c r="N24" s="116"/>
-    </row>
-    <row r="25" ht="20.1" customHeight="1" spans="1:14">
+      <c r="N24" s="119"/>
+    </row>
+    <row r="25" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A25" s="54"/>
       <c r="B25" s="55"/>
       <c r="C25" s="56"/>
@@ -2615,14 +2662,14 @@
       <c r="F25" s="56"/>
       <c r="G25" s="57"/>
       <c r="H25" s="55"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="119"/>
-      <c r="N25" s="120"/>
-    </row>
-    <row r="26" ht="20.1" customHeight="1" spans="1:14">
+      <c r="I25" s="120"/>
+      <c r="J25" s="120"/>
+      <c r="K25" s="120"/>
+      <c r="L25" s="121"/>
+      <c r="M25" s="122"/>
+      <c r="N25" s="123"/>
+    </row>
+    <row r="26" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A26" s="54"/>
       <c r="B26" s="55"/>
       <c r="C26" s="56"/>
@@ -2631,14 +2678,14 @@
       <c r="F26" s="56"/>
       <c r="G26" s="57"/>
       <c r="H26" s="55"/>
-      <c r="I26" s="117"/>
-      <c r="J26" s="117"/>
-      <c r="K26" s="117"/>
-      <c r="L26" s="118"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="120"/>
-    </row>
-    <row r="27" ht="20.1" customHeight="1" spans="1:14">
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="121"/>
+      <c r="M26" s="122"/>
+      <c r="N26" s="123"/>
+    </row>
+    <row r="27" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A27" s="54"/>
       <c r="B27" s="55"/>
       <c r="C27" s="56"/>
@@ -2647,14 +2694,14 @@
       <c r="F27" s="56"/>
       <c r="G27" s="57"/>
       <c r="H27" s="55"/>
-      <c r="I27" s="117"/>
-      <c r="J27" s="117"/>
-      <c r="K27" s="117"/>
-      <c r="L27" s="118"/>
-      <c r="M27" s="119"/>
-      <c r="N27" s="120"/>
-    </row>
-    <row r="28" ht="20.1" customHeight="1" spans="1:14">
+      <c r="I27" s="120"/>
+      <c r="J27" s="120"/>
+      <c r="K27" s="120"/>
+      <c r="L27" s="121"/>
+      <c r="M27" s="122"/>
+      <c r="N27" s="123"/>
+    </row>
+    <row r="28" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A28" s="54"/>
       <c r="B28" s="55"/>
       <c r="C28" s="56"/>
@@ -2663,14 +2710,14 @@
       <c r="F28" s="56"/>
       <c r="G28" s="57"/>
       <c r="H28" s="55"/>
-      <c r="I28" s="117"/>
-      <c r="J28" s="117"/>
-      <c r="K28" s="117"/>
-      <c r="L28" s="118"/>
-      <c r="M28" s="119"/>
-      <c r="N28" s="120"/>
-    </row>
-    <row r="29" ht="20.1" customHeight="1" spans="1:14">
+      <c r="I28" s="120"/>
+      <c r="J28" s="120"/>
+      <c r="K28" s="120"/>
+      <c r="L28" s="121"/>
+      <c r="M28" s="122"/>
+      <c r="N28" s="123"/>
+    </row>
+    <row r="29" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A29" s="54"/>
       <c r="B29" s="55"/>
       <c r="C29" s="56"/>
@@ -2679,14 +2726,14 @@
       <c r="F29" s="56"/>
       <c r="G29" s="57"/>
       <c r="H29" s="55"/>
-      <c r="I29" s="117"/>
-      <c r="J29" s="117"/>
-      <c r="K29" s="117"/>
-      <c r="L29" s="118"/>
-      <c r="M29" s="119"/>
-      <c r="N29" s="120"/>
-    </row>
-    <row r="30" ht="20.1" customHeight="1" spans="1:14">
+      <c r="I29" s="120"/>
+      <c r="J29" s="120"/>
+      <c r="K29" s="120"/>
+      <c r="L29" s="121"/>
+      <c r="M29" s="122"/>
+      <c r="N29" s="123"/>
+    </row>
+    <row r="30" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A30" s="54"/>
       <c r="B30" s="55"/>
       <c r="C30" s="56"/>
@@ -2695,14 +2742,14 @@
       <c r="F30" s="56"/>
       <c r="G30" s="57"/>
       <c r="H30" s="55"/>
-      <c r="I30" s="117"/>
-      <c r="J30" s="117"/>
-      <c r="K30" s="117"/>
-      <c r="L30" s="118"/>
-      <c r="M30" s="119"/>
-      <c r="N30" s="120"/>
-    </row>
-    <row r="31" ht="20.1" customHeight="1" spans="1:14">
+      <c r="I30" s="120"/>
+      <c r="J30" s="120"/>
+      <c r="K30" s="120"/>
+      <c r="L30" s="121"/>
+      <c r="M30" s="122"/>
+      <c r="N30" s="123"/>
+    </row>
+    <row r="31" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A31" s="58" t="s">
         <v>32</v>
       </c>
@@ -2718,9 +2765,9 @@
       <c r="K31" s="59"/>
       <c r="L31" s="59"/>
       <c r="M31" s="59"/>
-      <c r="N31" s="121"/>
-    </row>
-    <row r="32" ht="20.1" customHeight="1" spans="1:14">
+      <c r="N31" s="124"/>
+    </row>
+    <row r="32" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A32" s="54"/>
       <c r="B32" s="55"/>
       <c r="C32" s="56"/>
@@ -2729,14 +2776,14 @@
       <c r="F32" s="56"/>
       <c r="G32" s="57"/>
       <c r="H32" s="55"/>
-      <c r="I32" s="117"/>
-      <c r="J32" s="117"/>
-      <c r="K32" s="117"/>
-      <c r="L32" s="118"/>
-      <c r="M32" s="119"/>
-      <c r="N32" s="120"/>
-    </row>
-    <row r="33" ht="20.1" customHeight="1" spans="1:14">
+      <c r="I32" s="120"/>
+      <c r="J32" s="120"/>
+      <c r="K32" s="120"/>
+      <c r="L32" s="121"/>
+      <c r="M32" s="122"/>
+      <c r="N32" s="123"/>
+    </row>
+    <row r="33" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A33" s="54"/>
       <c r="B33" s="55"/>
       <c r="C33" s="56"/>
@@ -2745,14 +2792,14 @@
       <c r="F33" s="56"/>
       <c r="G33" s="57"/>
       <c r="H33" s="55"/>
-      <c r="I33" s="117"/>
-      <c r="J33" s="117"/>
-      <c r="K33" s="117"/>
-      <c r="L33" s="118"/>
-      <c r="M33" s="119"/>
-      <c r="N33" s="120"/>
-    </row>
-    <row r="34" ht="20.1" customHeight="1" spans="1:14">
+      <c r="I33" s="120"/>
+      <c r="J33" s="120"/>
+      <c r="K33" s="120"/>
+      <c r="L33" s="121"/>
+      <c r="M33" s="122"/>
+      <c r="N33" s="123"/>
+    </row>
+    <row r="34" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A34" s="54"/>
       <c r="B34" s="55"/>
       <c r="C34" s="56"/>
@@ -2761,14 +2808,14 @@
       <c r="F34" s="56"/>
       <c r="G34" s="57"/>
       <c r="H34" s="55"/>
-      <c r="I34" s="117"/>
-      <c r="J34" s="117"/>
-      <c r="K34" s="117"/>
-      <c r="L34" s="118"/>
-      <c r="M34" s="119"/>
-      <c r="N34" s="120"/>
-    </row>
-    <row r="35" ht="20.1" customHeight="1" spans="1:14">
+      <c r="I34" s="120"/>
+      <c r="J34" s="120"/>
+      <c r="K34" s="120"/>
+      <c r="L34" s="121"/>
+      <c r="M34" s="122"/>
+      <c r="N34" s="123"/>
+    </row>
+    <row r="35" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A35" s="54"/>
       <c r="B35" s="55"/>
       <c r="C35" s="56"/>
@@ -2777,14 +2824,14 @@
       <c r="F35" s="56"/>
       <c r="G35" s="57"/>
       <c r="H35" s="55"/>
-      <c r="I35" s="117"/>
-      <c r="J35" s="117"/>
-      <c r="K35" s="117"/>
-      <c r="L35" s="118"/>
-      <c r="M35" s="119"/>
-      <c r="N35" s="120"/>
-    </row>
-    <row r="36" ht="20.1" customHeight="1" spans="1:14">
+      <c r="I35" s="120"/>
+      <c r="J35" s="120"/>
+      <c r="K35" s="120"/>
+      <c r="L35" s="121"/>
+      <c r="M35" s="122"/>
+      <c r="N35" s="123"/>
+    </row>
+    <row r="36" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A36" s="54"/>
       <c r="B36" s="55"/>
       <c r="C36" s="56"/>
@@ -2793,14 +2840,14 @@
       <c r="F36" s="56"/>
       <c r="G36" s="57"/>
       <c r="H36" s="55"/>
-      <c r="I36" s="117"/>
-      <c r="J36" s="117"/>
-      <c r="K36" s="117"/>
-      <c r="L36" s="118"/>
-      <c r="M36" s="119"/>
-      <c r="N36" s="120"/>
-    </row>
-    <row r="37" ht="20.1" customHeight="1" spans="1:14">
+      <c r="I36" s="120"/>
+      <c r="J36" s="120"/>
+      <c r="K36" s="120"/>
+      <c r="L36" s="121"/>
+      <c r="M36" s="122"/>
+      <c r="N36" s="123"/>
+    </row>
+    <row r="37" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A37" s="54"/>
       <c r="B37" s="55"/>
       <c r="C37" s="56"/>
@@ -2809,14 +2856,14 @@
       <c r="F37" s="56"/>
       <c r="G37" s="57"/>
       <c r="H37" s="55"/>
-      <c r="I37" s="117"/>
-      <c r="J37" s="117"/>
-      <c r="K37" s="117"/>
-      <c r="L37" s="118"/>
-      <c r="M37" s="119"/>
-      <c r="N37" s="120"/>
-    </row>
-    <row r="38" ht="20.1" customHeight="1" spans="1:14">
+      <c r="I37" s="120"/>
+      <c r="J37" s="120"/>
+      <c r="K37" s="120"/>
+      <c r="L37" s="121"/>
+      <c r="M37" s="122"/>
+      <c r="N37" s="123"/>
+    </row>
+    <row r="38" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A38" s="58" t="s">
         <v>33</v>
       </c>
@@ -2832,9 +2879,9 @@
       <c r="K38" s="59"/>
       <c r="L38" s="59"/>
       <c r="M38" s="59"/>
-      <c r="N38" s="121"/>
-    </row>
-    <row r="39" ht="20.1" customHeight="1" spans="1:14">
+      <c r="N38" s="124"/>
+    </row>
+    <row r="39" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
       <c r="A39" s="54"/>
       <c r="B39" s="55"/>
       <c r="C39" s="56"/>
@@ -2843,14 +2890,14 @@
       <c r="F39" s="60"/>
       <c r="G39" s="61"/>
       <c r="H39" s="62"/>
-      <c r="I39" s="117"/>
-      <c r="J39" s="117"/>
-      <c r="K39" s="117"/>
-      <c r="L39" s="118"/>
-      <c r="M39" s="122"/>
-      <c r="N39" s="123"/>
-    </row>
-    <row r="40" customHeight="1" spans="1:14">
+      <c r="I39" s="120"/>
+      <c r="J39" s="120"/>
+      <c r="K39" s="120"/>
+      <c r="L39" s="121"/>
+      <c r="M39" s="125"/>
+      <c r="N39" s="126"/>
+    </row>
+    <row r="40" customFormat="1" customHeight="1" spans="1:14">
       <c r="A40" s="63" t="s">
         <v>34</v>
       </c>
@@ -2861,14 +2908,14 @@
       <c r="F40" s="66"/>
       <c r="G40" s="66"/>
       <c r="H40" s="64"/>
-      <c r="I40" s="124"/>
-      <c r="J40" s="124"/>
-      <c r="K40" s="124"/>
-      <c r="L40" s="124"/>
+      <c r="I40" s="127"/>
+      <c r="J40" s="127"/>
+      <c r="K40" s="127"/>
+      <c r="L40" s="127"/>
       <c r="M40" s="65"/>
-      <c r="N40" s="125"/>
-    </row>
-    <row r="41" ht="15.4" customHeight="1" spans="1:14">
+      <c r="N40" s="128"/>
+    </row>
+    <row r="41" customFormat="1" ht="15.4" customHeight="1" spans="1:14">
       <c r="A41" s="67" t="s">
         <v>35</v>
       </c>
@@ -2884,9 +2931,9 @@
       <c r="K41" s="68"/>
       <c r="L41" s="68"/>
       <c r="M41" s="68"/>
-      <c r="N41" s="126"/>
-    </row>
-    <row r="42" ht="18" customHeight="1" spans="1:14">
+      <c r="N41" s="129"/>
+    </row>
+    <row r="42" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A42" s="69"/>
       <c r="B42" s="70"/>
       <c r="C42" s="70"/>
@@ -2900,9 +2947,9 @@
       <c r="K42" s="70"/>
       <c r="L42" s="70"/>
       <c r="M42" s="70"/>
-      <c r="N42" s="127"/>
-    </row>
-    <row r="43" ht="18" customHeight="1" spans="1:14">
+      <c r="N42" s="130"/>
+    </row>
+    <row r="43" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A43" s="71"/>
       <c r="B43" s="72"/>
       <c r="C43" s="72"/>
@@ -2916,9 +2963,9 @@
       <c r="K43" s="72"/>
       <c r="L43" s="72"/>
       <c r="M43" s="72"/>
-      <c r="N43" s="128"/>
-    </row>
-    <row r="44" ht="18" customHeight="1" spans="1:14">
+      <c r="N43" s="131"/>
+    </row>
+    <row r="44" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A44" s="71"/>
       <c r="B44" s="72"/>
       <c r="C44" s="72"/>
@@ -2932,9 +2979,9 @@
       <c r="K44" s="72"/>
       <c r="L44" s="72"/>
       <c r="M44" s="72"/>
-      <c r="N44" s="128"/>
-    </row>
-    <row r="45" ht="18" customHeight="1" spans="1:14">
+      <c r="N44" s="131"/>
+    </row>
+    <row r="45" customFormat="1" ht="18" customHeight="1" spans="1:14">
       <c r="A45" s="73"/>
       <c r="B45" s="74"/>
       <c r="C45" s="74"/>
@@ -2948,9 +2995,9 @@
       <c r="K45" s="74"/>
       <c r="L45" s="74"/>
       <c r="M45" s="74"/>
-      <c r="N45" s="129"/>
-    </row>
-    <row r="46" spans="1:14">
+      <c r="N45" s="132"/>
+    </row>
+    <row r="46" customFormat="1" spans="1:14">
       <c r="A46" s="36" t="s">
         <v>36</v>
       </c>
@@ -2967,7 +3014,7 @@
       <c r="H46" s="76" t="s">
         <v>18</v>
       </c>
-      <c r="I46" s="130"/>
+      <c r="I46" s="133"/>
       <c r="J46" s="36" t="s">
         <v>38</v>
       </c>
@@ -2978,7 +3025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" ht="32.25" customHeight="1" spans="1:14">
+    <row r="47" customFormat="1" ht="32.25" customHeight="1" spans="1:14">
       <c r="A47" s="25"/>
       <c r="B47" s="26"/>
       <c r="C47" s="27"/>
@@ -2989,91 +3036,91 @@
       <c r="F47" s="79"/>
       <c r="G47" s="80"/>
       <c r="H47" s="81"/>
-      <c r="I47" s="131"/>
+      <c r="I47" s="134"/>
       <c r="J47" s="25"/>
       <c r="K47" s="26"/>
       <c r="L47" s="26"/>
       <c r="M47" s="27"/>
       <c r="N47" s="77"/>
     </row>
-    <row r="48" ht="33" customHeight="1" spans="1:14">
-      <c r="A48" s="30"/>
-      <c r="B48" s="31"/>
-      <c r="C48" s="32"/>
-      <c r="D48" s="82"/>
+    <row r="48" customFormat="1" ht="33" customHeight="1" spans="1:14">
+      <c r="A48" s="82"/>
+      <c r="B48" s="83"/>
+      <c r="C48" s="84"/>
+      <c r="D48" s="85"/>
       <c r="E48" s="11"/>
       <c r="F48" s="12"/>
-      <c r="G48" s="83"/>
+      <c r="G48" s="86"/>
       <c r="H48" s="81"/>
-      <c r="I48" s="131"/>
-      <c r="J48" s="30"/>
-      <c r="K48" s="31"/>
-      <c r="L48" s="31"/>
-      <c r="M48" s="32"/>
-      <c r="N48" s="82"/>
-    </row>
-    <row r="49" spans="1:14">
+      <c r="I48" s="134"/>
+      <c r="J48" s="82"/>
+      <c r="K48" s="83"/>
+      <c r="L48" s="83"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="85"/>
+    </row>
+    <row r="49" customFormat="1" spans="1:14">
       <c r="A49" s="36" t="s">
         <v>41</v>
       </c>
       <c r="B49" s="37"/>
       <c r="C49" s="38"/>
-      <c r="D49" s="84"/>
+      <c r="D49" s="87"/>
       <c r="E49" s="36" t="s">
         <v>42</v>
       </c>
       <c r="F49" s="37"/>
       <c r="G49" s="38"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="132"/>
+      <c r="H49" s="88"/>
+      <c r="I49" s="135"/>
       <c r="J49" s="36" t="s">
         <v>21</v>
       </c>
       <c r="K49" s="37"/>
       <c r="L49" s="37"/>
       <c r="M49" s="38"/>
-      <c r="N49" s="84"/>
-    </row>
-    <row r="50" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A50" s="86" t="s">
+      <c r="N49" s="87"/>
+    </row>
+    <row r="50" customFormat="1" ht="22.5" customHeight="1" spans="1:14">
+      <c r="A50" s="89" t="s">
         <v>43</v>
       </c>
-      <c r="B50" s="86"/>
-      <c r="C50" s="86"/>
-      <c r="D50" s="86"/>
-      <c r="E50" s="86"/>
-      <c r="F50" s="86"/>
-      <c r="G50" s="86"/>
-      <c r="H50" s="86"/>
-      <c r="I50" s="86"/>
-      <c r="J50" s="86"/>
-      <c r="K50" s="86"/>
-      <c r="L50" s="86"/>
-      <c r="M50" s="86"/>
-      <c r="N50" s="86"/>
-    </row>
-    <row r="51" spans="1:14">
-      <c r="A51" s="87"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="87"/>
-      <c r="D51" s="87"/>
-      <c r="E51" s="87"/>
-      <c r="F51" s="87"/>
-      <c r="G51" s="87"/>
-      <c r="H51" s="87"/>
-      <c r="I51" s="87"/>
-      <c r="J51" s="87"/>
-      <c r="K51" s="87"/>
-      <c r="L51" s="87"/>
-      <c r="M51" s="87"/>
-      <c r="N51" s="87"/>
-    </row>
-    <row r="52" ht="14.45" customHeight="1" spans="1:5">
-      <c r="A52" s="88"/>
-      <c r="B52" s="88"/>
-      <c r="C52" s="89"/>
-      <c r="D52" s="89"/>
-      <c r="E52" s="90"/>
+      <c r="B50" s="89"/>
+      <c r="C50" s="89"/>
+      <c r="D50" s="89"/>
+      <c r="E50" s="89"/>
+      <c r="F50" s="89"/>
+      <c r="G50" s="89"/>
+      <c r="H50" s="89"/>
+      <c r="I50" s="89"/>
+      <c r="J50" s="89"/>
+      <c r="K50" s="89"/>
+      <c r="L50" s="89"/>
+      <c r="M50" s="89"/>
+      <c r="N50" s="89"/>
+    </row>
+    <row r="51" customFormat="1" spans="1:14">
+      <c r="A51" s="90"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="90"/>
+      <c r="E51" s="90"/>
+      <c r="F51" s="90"/>
+      <c r="G51" s="90"/>
+      <c r="H51" s="90"/>
+      <c r="I51" s="90"/>
+      <c r="J51" s="90"/>
+      <c r="K51" s="90"/>
+      <c r="L51" s="90"/>
+      <c r="M51" s="90"/>
+      <c r="N51" s="90"/>
+    </row>
+    <row r="52" customFormat="1" ht="14.45" customHeight="1" spans="1:5">
+      <c r="A52" s="91"/>
+      <c r="B52" s="91"/>
+      <c r="C52" s="92"/>
+      <c r="D52" s="92"/>
+      <c r="E52" s="93"/>
     </row>
   </sheetData>
   <mergeCells count="103">
@@ -3173,13 +3220,13 @@
     <mergeCell ref="D47:D49"/>
     <mergeCell ref="N18:N20"/>
     <mergeCell ref="N47:N49"/>
+    <mergeCell ref="F18:G20"/>
+    <mergeCell ref="A22:B23"/>
+    <mergeCell ref="M22:N23"/>
     <mergeCell ref="C22:E23"/>
     <mergeCell ref="F22:H23"/>
-    <mergeCell ref="A22:B23"/>
-    <mergeCell ref="M22:N23"/>
     <mergeCell ref="A47:C48"/>
     <mergeCell ref="J47:M48"/>
-    <mergeCell ref="F18:G20"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0"/>

--- a/SourceCode/dams/templates/BatStateU-DOC-AF-03_Individual Performance Commitment and Review (IPCR)_Rev 01.xlsx
+++ b/SourceCode/dams/templates/BatStateU-DOC-AF-03_Individual Performance Commitment and Review (IPCR)_Rev 01.xlsx
@@ -10,14 +10,14 @@
     <sheet name="IPCR BLANK FORM" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPCR BLANK FORM'!$A$1:$N$40</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'IPCR BLANK FORM'!$A$1:$N$33</definedName>
   </definedNames>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="43">
   <si>
     <t xml:space="preserve">     Reference No.: BatStateU-DOC-AF-03</t>
   </si>
@@ -188,9 +188,6 @@
     <t>INSTRUCTION</t>
   </si>
   <si>
-    <t>STRATEGIC</t>
-  </si>
-  <si>
     <t>SUPPORT</t>
   </si>
   <si>
@@ -1358,7 +1355,7 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="136">
+  <cellXfs count="141">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1449,9 +1446,6 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1564,6 +1558,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="13" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1577,12 +1574,21 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="justify"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1612,11 +1618,8 @@
       <alignment horizontal="justify" vertical="justify"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1711,6 +1714,15 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
@@ -2157,10 +2169,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:O52"/>
+  <dimension ref="A1:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScalePageLayoutView="55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:E19"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="90" zoomScalePageLayoutView="55" zoomScaleNormal="100" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="A43" sqref="A43:N43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5714285714286" defaultRowHeight="15"/>
@@ -2215,7 +2227,7 @@
       <c r="K2" s="4"/>
       <c r="L2" s="4"/>
       <c r="M2" s="4"/>
-      <c r="N2" s="94"/>
+      <c r="N2" s="97"/>
     </row>
     <row r="3" customFormat="1" ht="18.75" spans="1:14">
       <c r="A3" s="5"/>
@@ -2231,7 +2243,7 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="6"/>
-      <c r="N3" s="95"/>
+      <c r="N3" s="98"/>
     </row>
     <row r="4" customFormat="1" spans="1:14">
       <c r="A4" s="7"/>
@@ -2247,7 +2259,7 @@
       <c r="K4" s="8"/>
       <c r="L4" s="8"/>
       <c r="M4" s="8"/>
-      <c r="N4" s="96"/>
+      <c r="N4" s="99"/>
     </row>
     <row r="5" ht="49.5" customHeight="1" spans="1:15">
       <c r="A5" s="9" t="s">
@@ -2265,8 +2277,8 @@
       <c r="K5" s="10"/>
       <c r="L5" s="10"/>
       <c r="M5" s="10"/>
-      <c r="N5" s="97"/>
-      <c r="O5" s="98"/>
+      <c r="N5" s="100"/>
+      <c r="O5" s="101"/>
     </row>
     <row r="6" spans="1:15">
       <c r="A6" s="11"/>
@@ -2282,8 +2294,8 @@
       <c r="K6" s="12"/>
       <c r="L6" s="12"/>
       <c r="M6" s="12"/>
-      <c r="N6" s="86"/>
-      <c r="O6" s="98"/>
+      <c r="N6" s="102"/>
+      <c r="O6" s="101"/>
     </row>
     <row r="7" spans="1:15">
       <c r="A7" s="11"/>
@@ -2297,10 +2309,10 @@
       <c r="I7" s="12"/>
       <c r="J7" s="12"/>
       <c r="K7" s="12"/>
-      <c r="L7" s="99"/>
-      <c r="M7" s="99"/>
-      <c r="N7" s="100"/>
-      <c r="O7" s="98"/>
+      <c r="L7" s="31"/>
+      <c r="M7" s="31"/>
+      <c r="N7" s="32"/>
+      <c r="O7" s="101"/>
     </row>
     <row r="8" ht="12.75" customHeight="1" spans="1:15">
       <c r="A8" s="11"/>
@@ -2314,12 +2326,12 @@
       <c r="I8" s="13"/>
       <c r="J8" s="12"/>
       <c r="K8" s="12"/>
-      <c r="L8" s="101" t="s">
+      <c r="L8" s="103" t="s">
         <v>5</v>
       </c>
-      <c r="M8" s="101"/>
-      <c r="N8" s="102"/>
-      <c r="O8" s="98"/>
+      <c r="M8" s="103"/>
+      <c r="N8" s="104"/>
+      <c r="O8" s="101"/>
     </row>
     <row r="9" ht="12.75" customHeight="1" spans="1:15">
       <c r="A9" s="11"/>
@@ -2336,9 +2348,9 @@
       <c r="L9" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="M9" s="103"/>
-      <c r="N9" s="104"/>
-      <c r="O9" s="98"/>
+      <c r="M9" s="105"/>
+      <c r="N9" s="106"/>
+      <c r="O9" s="101"/>
     </row>
     <row r="10" ht="12.75" customHeight="1" spans="1:15">
       <c r="A10" s="7"/>
@@ -2359,9 +2371,9 @@
       <c r="J10" s="8"/>
       <c r="K10" s="8"/>
       <c r="L10" s="8"/>
-      <c r="M10" s="103"/>
-      <c r="N10" s="104"/>
-      <c r="O10" s="98"/>
+      <c r="M10" s="105"/>
+      <c r="N10" s="106"/>
+      <c r="O10" s="101"/>
     </row>
     <row r="11" ht="12.75" customHeight="1" spans="1:15">
       <c r="A11" s="7"/>
@@ -2383,8 +2395,8 @@
       <c r="K11" s="8"/>
       <c r="L11" s="13"/>
       <c r="M11" s="8"/>
-      <c r="N11" s="96"/>
-      <c r="O11" s="98"/>
+      <c r="N11" s="99"/>
+      <c r="O11" s="101"/>
     </row>
     <row r="12" ht="12.75" customHeight="1" spans="1:15">
       <c r="A12" s="7"/>
@@ -2406,8 +2418,8 @@
       <c r="K12" s="8"/>
       <c r="L12" s="13"/>
       <c r="M12" s="13"/>
-      <c r="N12" s="105"/>
-      <c r="O12" s="98"/>
+      <c r="N12" s="107"/>
+      <c r="O12" s="101"/>
     </row>
     <row r="13" ht="12.75" customHeight="1" spans="1:15">
       <c r="A13" s="7"/>
@@ -2424,13 +2436,13 @@
       <c r="H13" s="18">
         <v>2</v>
       </c>
-      <c r="I13" s="106"/>
+      <c r="I13" s="108"/>
       <c r="J13" s="8"/>
       <c r="K13" s="8"/>
       <c r="L13" s="13"/>
       <c r="M13" s="13"/>
-      <c r="N13" s="105"/>
-      <c r="O13" s="98"/>
+      <c r="N13" s="107"/>
+      <c r="O13" s="101"/>
     </row>
     <row r="14" ht="12.75" customHeight="1" spans="1:15">
       <c r="A14" s="7"/>
@@ -2447,13 +2459,13 @@
       <c r="H14" s="18">
         <v>1</v>
       </c>
-      <c r="I14" s="106"/>
+      <c r="I14" s="108"/>
       <c r="J14" s="8"/>
       <c r="K14" s="8"/>
       <c r="L14" s="13"/>
       <c r="M14" s="13"/>
-      <c r="N14" s="105"/>
-      <c r="O14" s="98"/>
+      <c r="N14" s="107"/>
+      <c r="O14" s="101"/>
     </row>
     <row r="15" ht="8.25" customHeight="1" spans="1:15">
       <c r="A15" s="7"/>
@@ -2469,8 +2481,8 @@
       <c r="K15" s="8"/>
       <c r="L15" s="13"/>
       <c r="M15" s="13"/>
-      <c r="N15" s="105"/>
-      <c r="O15" s="98"/>
+      <c r="N15" s="107"/>
+      <c r="O15" s="101"/>
     </row>
     <row r="16" ht="6" customHeight="1" spans="1:15">
       <c r="A16" s="7"/>
@@ -2486,8 +2498,8 @@
       <c r="K16" s="8"/>
       <c r="L16" s="8"/>
       <c r="M16" s="8"/>
-      <c r="N16" s="96"/>
-      <c r="O16" s="98"/>
+      <c r="N16" s="99"/>
+      <c r="O16" s="101"/>
     </row>
     <row r="17" ht="25.5" customHeight="1" spans="1:15">
       <c r="A17" s="19" t="s">
@@ -2504,15 +2516,15 @@
       <c r="H17" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="I17" s="107"/>
-      <c r="J17" s="107"/>
-      <c r="K17" s="107"/>
-      <c r="L17" s="107"/>
-      <c r="M17" s="108"/>
-      <c r="N17" s="109" t="s">
+      <c r="I17" s="109"/>
+      <c r="J17" s="109"/>
+      <c r="K17" s="109"/>
+      <c r="L17" s="109"/>
+      <c r="M17" s="110"/>
+      <c r="N17" s="111" t="s">
         <v>18</v>
       </c>
-      <c r="O17" s="98"/>
+      <c r="O17" s="101"/>
     </row>
     <row r="18" spans="1:15">
       <c r="A18" s="25"/>
@@ -2528,8 +2540,8 @@
       <c r="K18" s="26"/>
       <c r="L18" s="26"/>
       <c r="M18" s="27"/>
-      <c r="N18" s="110"/>
-      <c r="O18" s="98"/>
+      <c r="N18" s="112"/>
+      <c r="O18" s="101"/>
     </row>
     <row r="19" spans="1:15">
       <c r="A19" s="30"/>
@@ -2539,35 +2551,35 @@
       <c r="E19" s="32"/>
       <c r="F19" s="33"/>
       <c r="G19" s="34"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="99"/>
-      <c r="J19" s="99"/>
-      <c r="K19" s="99"/>
-      <c r="L19" s="99"/>
-      <c r="M19" s="100"/>
-      <c r="N19" s="111"/>
-      <c r="O19" s="98"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="31"/>
+      <c r="K19" s="31"/>
+      <c r="L19" s="31"/>
+      <c r="M19" s="32"/>
+      <c r="N19" s="113"/>
+      <c r="O19" s="101"/>
     </row>
     <row r="20" spans="1:15">
-      <c r="A20" s="36" t="s">
+      <c r="A20" s="35" t="s">
         <v>20</v>
       </c>
-      <c r="B20" s="37"/>
-      <c r="C20" s="37"/>
-      <c r="D20" s="37"/>
-      <c r="E20" s="38"/>
-      <c r="F20" s="39"/>
-      <c r="G20" s="40"/>
-      <c r="H20" s="36" t="s">
+      <c r="B20" s="36"/>
+      <c r="C20" s="36"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="37"/>
+      <c r="F20" s="38"/>
+      <c r="G20" s="39"/>
+      <c r="H20" s="35" t="s">
         <v>21</v>
       </c>
-      <c r="I20" s="37"/>
-      <c r="J20" s="37"/>
-      <c r="K20" s="37"/>
-      <c r="L20" s="37"/>
-      <c r="M20" s="38"/>
-      <c r="N20" s="112"/>
-      <c r="O20" s="98"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36"/>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36"/>
+      <c r="M20" s="37"/>
+      <c r="N20" s="114"/>
+      <c r="O20" s="101"/>
     </row>
     <row r="21" customFormat="1" spans="1:14">
       <c r="A21" s="25"/>
@@ -2586,544 +2598,430 @@
       <c r="N21" s="27"/>
     </row>
     <row r="22" customFormat="1" ht="15.75" customHeight="1" spans="1:14">
-      <c r="A22" s="41" t="s">
+      <c r="A22" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B22" s="42"/>
-      <c r="C22" s="43" t="s">
+      <c r="B22" s="41"/>
+      <c r="C22" s="42" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="45"/>
-      <c r="F22" s="43" t="s">
+      <c r="D22" s="43"/>
+      <c r="E22" s="44"/>
+      <c r="F22" s="42" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="44"/>
-      <c r="H22" s="45"/>
-      <c r="I22" s="113" t="s">
+      <c r="G22" s="43"/>
+      <c r="H22" s="44"/>
+      <c r="I22" s="115" t="s">
         <v>25</v>
       </c>
-      <c r="J22" s="114"/>
-      <c r="K22" s="114"/>
-      <c r="L22" s="115"/>
-      <c r="M22" s="41" t="s">
+      <c r="J22" s="116"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="40" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="42"/>
+      <c r="N22" s="41"/>
     </row>
     <row r="23" customFormat="1" ht="23.45" customHeight="1" spans="1:14">
-      <c r="A23" s="46"/>
-      <c r="B23" s="47"/>
-      <c r="C23" s="48"/>
-      <c r="D23" s="49"/>
-      <c r="E23" s="50"/>
-      <c r="F23" s="48"/>
-      <c r="G23" s="49"/>
-      <c r="H23" s="50"/>
-      <c r="I23" s="116" t="s">
+      <c r="A23" s="45"/>
+      <c r="B23" s="46"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="48"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="48"/>
+      <c r="H23" s="49"/>
+      <c r="I23" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="J23" s="117" t="s">
+      <c r="J23" s="119" t="s">
         <v>28</v>
       </c>
-      <c r="K23" s="117" t="s">
+      <c r="K23" s="119" t="s">
         <v>29</v>
       </c>
-      <c r="L23" s="118" t="s">
+      <c r="L23" s="120" t="s">
         <v>30</v>
       </c>
-      <c r="M23" s="46"/>
-      <c r="N23" s="47"/>
+      <c r="M23" s="45"/>
+      <c r="N23" s="46"/>
     </row>
     <row r="24" customFormat="1" ht="19.5" customHeight="1" spans="1:14">
-      <c r="A24" s="51" t="s">
+      <c r="A24" s="50" t="s">
         <v>31</v>
       </c>
-      <c r="B24" s="52"/>
-      <c r="C24" s="53"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="53"/>
-      <c r="F24" s="53"/>
-      <c r="G24" s="53"/>
-      <c r="H24" s="53"/>
-      <c r="I24" s="53"/>
-      <c r="J24" s="53"/>
-      <c r="K24" s="53"/>
-      <c r="L24" s="53"/>
-      <c r="M24" s="53"/>
-      <c r="N24" s="119"/>
+      <c r="B24" s="51"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
+      <c r="G24" s="52"/>
+      <c r="H24" s="52"/>
+      <c r="I24" s="52"/>
+      <c r="J24" s="52"/>
+      <c r="K24" s="52"/>
+      <c r="L24" s="52"/>
+      <c r="M24" s="52"/>
+      <c r="N24" s="121"/>
     </row>
     <row r="25" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A25" s="54"/>
-      <c r="B25" s="55"/>
-      <c r="C25" s="56"/>
-      <c r="D25" s="57"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
-      <c r="G25" s="57"/>
-      <c r="H25" s="55"/>
-      <c r="I25" s="120"/>
-      <c r="J25" s="120"/>
-      <c r="K25" s="120"/>
-      <c r="L25" s="121"/>
-      <c r="M25" s="122"/>
-      <c r="N25" s="123"/>
+      <c r="A25" s="53"/>
+      <c r="B25" s="54"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
+      <c r="E25" s="54"/>
+      <c r="F25" s="55"/>
+      <c r="G25" s="56"/>
+      <c r="H25" s="54"/>
+      <c r="I25" s="122"/>
+      <c r="J25" s="122"/>
+      <c r="K25" s="122"/>
+      <c r="L25" s="123"/>
+      <c r="M25" s="124"/>
+      <c r="N25" s="125"/>
     </row>
     <row r="26" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A26" s="54"/>
-      <c r="B26" s="55"/>
-      <c r="C26" s="56"/>
-      <c r="D26" s="57"/>
-      <c r="E26" s="55"/>
-      <c r="F26" s="56"/>
-      <c r="G26" s="57"/>
-      <c r="H26" s="55"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="121"/>
-      <c r="M26" s="122"/>
-      <c r="N26" s="123"/>
+      <c r="A26" s="53"/>
+      <c r="B26" s="54"/>
+      <c r="C26" s="55"/>
+      <c r="D26" s="56"/>
+      <c r="E26" s="54"/>
+      <c r="F26" s="55"/>
+      <c r="G26" s="56"/>
+      <c r="H26" s="54"/>
+      <c r="I26" s="122"/>
+      <c r="J26" s="122"/>
+      <c r="K26" s="122"/>
+      <c r="L26" s="123"/>
+      <c r="M26" s="124"/>
+      <c r="N26" s="125"/>
     </row>
     <row r="27" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A27" s="54"/>
-      <c r="B27" s="55"/>
-      <c r="C27" s="56"/>
-      <c r="D27" s="57"/>
-      <c r="E27" s="55"/>
-      <c r="F27" s="56"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="55"/>
-      <c r="I27" s="120"/>
-      <c r="J27" s="120"/>
-      <c r="K27" s="120"/>
-      <c r="L27" s="121"/>
-      <c r="M27" s="122"/>
-      <c r="N27" s="123"/>
+      <c r="A27" s="53"/>
+      <c r="B27" s="54"/>
+      <c r="C27" s="55"/>
+      <c r="D27" s="56"/>
+      <c r="E27" s="54"/>
+      <c r="F27" s="55"/>
+      <c r="G27" s="56"/>
+      <c r="H27" s="54"/>
+      <c r="I27" s="122"/>
+      <c r="J27" s="122"/>
+      <c r="K27" s="122"/>
+      <c r="L27" s="123"/>
+      <c r="M27" s="124"/>
+      <c r="N27" s="125"/>
     </row>
     <row r="28" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A28" s="54"/>
-      <c r="B28" s="55"/>
-      <c r="C28" s="56"/>
-      <c r="D28" s="57"/>
-      <c r="E28" s="55"/>
-      <c r="F28" s="56"/>
-      <c r="G28" s="57"/>
-      <c r="H28" s="55"/>
-      <c r="I28" s="120"/>
-      <c r="J28" s="120"/>
-      <c r="K28" s="120"/>
-      <c r="L28" s="121"/>
-      <c r="M28" s="122"/>
-      <c r="N28" s="123"/>
+      <c r="A28" s="53"/>
+      <c r="B28" s="54"/>
+      <c r="C28" s="55"/>
+      <c r="D28" s="56"/>
+      <c r="E28" s="54"/>
+      <c r="F28" s="55"/>
+      <c r="G28" s="56"/>
+      <c r="H28" s="54"/>
+      <c r="I28" s="122"/>
+      <c r="J28" s="122"/>
+      <c r="K28" s="122"/>
+      <c r="L28" s="123"/>
+      <c r="M28" s="124"/>
+      <c r="N28" s="125"/>
     </row>
     <row r="29" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A29" s="54"/>
-      <c r="B29" s="55"/>
-      <c r="C29" s="56"/>
-      <c r="D29" s="57"/>
-      <c r="E29" s="55"/>
-      <c r="F29" s="56"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="55"/>
-      <c r="I29" s="120"/>
-      <c r="J29" s="120"/>
-      <c r="K29" s="120"/>
-      <c r="L29" s="121"/>
-      <c r="M29" s="122"/>
-      <c r="N29" s="123"/>
+      <c r="A29" s="53"/>
+      <c r="B29" s="54"/>
+      <c r="C29" s="55"/>
+      <c r="D29" s="56"/>
+      <c r="E29" s="54"/>
+      <c r="F29" s="55"/>
+      <c r="G29" s="56"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="122"/>
+      <c r="J29" s="122"/>
+      <c r="K29" s="122"/>
+      <c r="L29" s="123"/>
+      <c r="M29" s="124"/>
+      <c r="N29" s="125"/>
     </row>
     <row r="30" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A30" s="54"/>
-      <c r="B30" s="55"/>
-      <c r="C30" s="56"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="55"/>
-      <c r="F30" s="56"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="55"/>
-      <c r="I30" s="120"/>
-      <c r="J30" s="120"/>
-      <c r="K30" s="120"/>
-      <c r="L30" s="121"/>
-      <c r="M30" s="122"/>
-      <c r="N30" s="123"/>
+      <c r="A30" s="53"/>
+      <c r="B30" s="54"/>
+      <c r="C30" s="55"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="54"/>
+      <c r="F30" s="55"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="54"/>
+      <c r="I30" s="122"/>
+      <c r="J30" s="122"/>
+      <c r="K30" s="122"/>
+      <c r="L30" s="123"/>
+      <c r="M30" s="124"/>
+      <c r="N30" s="125"/>
     </row>
     <row r="31" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A31" s="58" t="s">
+      <c r="A31" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="124"/>
+      <c r="B31" s="58"/>
+      <c r="C31" s="58"/>
+      <c r="D31" s="58"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="58"/>
+      <c r="G31" s="58"/>
+      <c r="H31" s="58"/>
+      <c r="I31" s="58"/>
+      <c r="J31" s="58"/>
+      <c r="K31" s="58"/>
+      <c r="L31" s="58"/>
+      <c r="M31" s="58"/>
+      <c r="N31" s="126"/>
     </row>
     <row r="32" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A32" s="54"/>
-      <c r="B32" s="55"/>
-      <c r="C32" s="56"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="55"/>
-      <c r="F32" s="56"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="55"/>
-      <c r="I32" s="120"/>
-      <c r="J32" s="120"/>
-      <c r="K32" s="120"/>
-      <c r="L32" s="121"/>
-      <c r="M32" s="122"/>
-      <c r="N32" s="123"/>
-    </row>
-    <row r="33" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A33" s="54"/>
-      <c r="B33" s="55"/>
-      <c r="C33" s="56"/>
-      <c r="D33" s="57"/>
-      <c r="E33" s="55"/>
-      <c r="F33" s="56"/>
-      <c r="G33" s="57"/>
-      <c r="H33" s="55"/>
-      <c r="I33" s="120"/>
-      <c r="J33" s="120"/>
-      <c r="K33" s="120"/>
-      <c r="L33" s="121"/>
-      <c r="M33" s="122"/>
-      <c r="N33" s="123"/>
-    </row>
-    <row r="34" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A34" s="54"/>
-      <c r="B34" s="55"/>
-      <c r="C34" s="56"/>
-      <c r="D34" s="57"/>
-      <c r="E34" s="55"/>
-      <c r="F34" s="56"/>
-      <c r="G34" s="57"/>
-      <c r="H34" s="55"/>
-      <c r="I34" s="120"/>
-      <c r="J34" s="120"/>
-      <c r="K34" s="120"/>
-      <c r="L34" s="121"/>
-      <c r="M34" s="122"/>
-      <c r="N34" s="123"/>
-    </row>
-    <row r="35" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A35" s="54"/>
-      <c r="B35" s="55"/>
-      <c r="C35" s="56"/>
-      <c r="D35" s="57"/>
-      <c r="E35" s="55"/>
-      <c r="F35" s="56"/>
-      <c r="G35" s="57"/>
-      <c r="H35" s="55"/>
-      <c r="I35" s="120"/>
-      <c r="J35" s="120"/>
-      <c r="K35" s="120"/>
-      <c r="L35" s="121"/>
-      <c r="M35" s="122"/>
-      <c r="N35" s="123"/>
-    </row>
-    <row r="36" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A36" s="54"/>
-      <c r="B36" s="55"/>
-      <c r="C36" s="56"/>
-      <c r="D36" s="57"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="56"/>
-      <c r="G36" s="57"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="120"/>
-      <c r="J36" s="120"/>
-      <c r="K36" s="120"/>
-      <c r="L36" s="121"/>
-      <c r="M36" s="122"/>
-      <c r="N36" s="123"/>
-    </row>
-    <row r="37" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A37" s="54"/>
-      <c r="B37" s="55"/>
-      <c r="C37" s="56"/>
-      <c r="D37" s="57"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="56"/>
-      <c r="G37" s="57"/>
-      <c r="H37" s="55"/>
-      <c r="I37" s="120"/>
-      <c r="J37" s="120"/>
-      <c r="K37" s="120"/>
-      <c r="L37" s="121"/>
-      <c r="M37" s="122"/>
-      <c r="N37" s="123"/>
-    </row>
-    <row r="38" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A38" s="58" t="s">
+      <c r="A32" s="53"/>
+      <c r="B32" s="54"/>
+      <c r="C32" s="55"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="60"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="122"/>
+      <c r="J32" s="122"/>
+      <c r="K32" s="122"/>
+      <c r="L32" s="123"/>
+      <c r="M32" s="127"/>
+      <c r="N32" s="128"/>
+    </row>
+    <row r="33" customFormat="1" customHeight="1" spans="1:14">
+      <c r="A33" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="B38" s="59"/>
-      <c r="C38" s="59"/>
-      <c r="D38" s="59"/>
-      <c r="E38" s="59"/>
-      <c r="F38" s="59"/>
-      <c r="G38" s="59"/>
-      <c r="H38" s="59"/>
-      <c r="I38" s="59"/>
-      <c r="J38" s="59"/>
-      <c r="K38" s="59"/>
-      <c r="L38" s="59"/>
-      <c r="M38" s="59"/>
-      <c r="N38" s="124"/>
-    </row>
-    <row r="39" customFormat="1" ht="20.1" customHeight="1" spans="1:14">
-      <c r="A39" s="54"/>
-      <c r="B39" s="55"/>
-      <c r="C39" s="56"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="60"/>
-      <c r="G39" s="61"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="120"/>
-      <c r="J39" s="120"/>
-      <c r="K39" s="120"/>
-      <c r="L39" s="121"/>
-      <c r="M39" s="125"/>
-      <c r="N39" s="126"/>
-    </row>
-    <row r="40" customFormat="1" customHeight="1" spans="1:14">
-      <c r="A40" s="63" t="s">
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="65"/>
+      <c r="E33" s="65"/>
+      <c r="F33" s="65"/>
+      <c r="G33" s="65"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="64"/>
+      <c r="N33" s="130"/>
+    </row>
+    <row r="34" customFormat="1" ht="15.4" customHeight="1" spans="1:14">
+      <c r="A34" s="66" t="s">
         <v>34</v>
       </c>
-      <c r="B40" s="64"/>
-      <c r="C40" s="65"/>
-      <c r="D40" s="66"/>
-      <c r="E40" s="66"/>
-      <c r="F40" s="66"/>
-      <c r="G40" s="66"/>
-      <c r="H40" s="64"/>
-      <c r="I40" s="127"/>
-      <c r="J40" s="127"/>
-      <c r="K40" s="127"/>
-      <c r="L40" s="127"/>
-      <c r="M40" s="65"/>
-      <c r="N40" s="128"/>
-    </row>
-    <row r="41" customFormat="1" ht="15.4" customHeight="1" spans="1:14">
-      <c r="A41" s="67" t="s">
+      <c r="B34" s="67"/>
+      <c r="C34" s="67"/>
+      <c r="D34" s="67"/>
+      <c r="E34" s="67"/>
+      <c r="F34" s="67"/>
+      <c r="G34" s="67"/>
+      <c r="H34" s="67"/>
+      <c r="I34" s="67"/>
+      <c r="J34" s="67"/>
+      <c r="K34" s="67"/>
+      <c r="L34" s="67"/>
+      <c r="M34" s="67"/>
+      <c r="N34" s="131"/>
+    </row>
+    <row r="35" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A35" s="68"/>
+      <c r="B35" s="69"/>
+      <c r="C35" s="69"/>
+      <c r="D35" s="69"/>
+      <c r="E35" s="69"/>
+      <c r="F35" s="69"/>
+      <c r="G35" s="69"/>
+      <c r="H35" s="69"/>
+      <c r="I35" s="69"/>
+      <c r="J35" s="69"/>
+      <c r="K35" s="69"/>
+      <c r="L35" s="69"/>
+      <c r="M35" s="69"/>
+      <c r="N35" s="132"/>
+    </row>
+    <row r="36" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A36" s="70"/>
+      <c r="B36" s="71"/>
+      <c r="C36" s="71"/>
+      <c r="D36" s="71"/>
+      <c r="E36" s="71"/>
+      <c r="F36" s="71"/>
+      <c r="G36" s="71"/>
+      <c r="H36" s="71"/>
+      <c r="I36" s="71"/>
+      <c r="J36" s="71"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="71"/>
+      <c r="M36" s="71"/>
+      <c r="N36" s="133"/>
+    </row>
+    <row r="37" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A37" s="70"/>
+      <c r="B37" s="71"/>
+      <c r="C37" s="71"/>
+      <c r="D37" s="71"/>
+      <c r="E37" s="71"/>
+      <c r="F37" s="71"/>
+      <c r="G37" s="71"/>
+      <c r="H37" s="71"/>
+      <c r="I37" s="71"/>
+      <c r="J37" s="71"/>
+      <c r="K37" s="71"/>
+      <c r="L37" s="71"/>
+      <c r="M37" s="71"/>
+      <c r="N37" s="133"/>
+    </row>
+    <row r="38" customFormat="1" ht="18" customHeight="1" spans="1:14">
+      <c r="A38" s="72"/>
+      <c r="B38" s="73"/>
+      <c r="C38" s="73"/>
+      <c r="D38" s="73"/>
+      <c r="E38" s="73"/>
+      <c r="F38" s="73"/>
+      <c r="G38" s="73"/>
+      <c r="H38" s="73"/>
+      <c r="I38" s="73"/>
+      <c r="J38" s="73"/>
+      <c r="K38" s="73"/>
+      <c r="L38" s="73"/>
+      <c r="M38" s="73"/>
+      <c r="N38" s="134"/>
+    </row>
+    <row r="39" customFormat="1" spans="1:14">
+      <c r="A39" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="B41" s="68"/>
-      <c r="C41" s="68"/>
-      <c r="D41" s="68"/>
-      <c r="E41" s="68"/>
-      <c r="F41" s="68"/>
-      <c r="G41" s="68"/>
-      <c r="H41" s="68"/>
-      <c r="I41" s="68"/>
-      <c r="J41" s="68"/>
-      <c r="K41" s="68"/>
-      <c r="L41" s="68"/>
-      <c r="M41" s="68"/>
-      <c r="N41" s="129"/>
-    </row>
-    <row r="42" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A42" s="69"/>
-      <c r="B42" s="70"/>
-      <c r="C42" s="70"/>
-      <c r="D42" s="70"/>
-      <c r="E42" s="70"/>
-      <c r="F42" s="70"/>
-      <c r="G42" s="70"/>
-      <c r="H42" s="70"/>
-      <c r="I42" s="70"/>
-      <c r="J42" s="70"/>
-      <c r="K42" s="70"/>
-      <c r="L42" s="70"/>
-      <c r="M42" s="70"/>
-      <c r="N42" s="130"/>
-    </row>
-    <row r="43" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A43" s="71"/>
-      <c r="B43" s="72"/>
-      <c r="C43" s="72"/>
-      <c r="D43" s="72"/>
-      <c r="E43" s="72"/>
-      <c r="F43" s="72"/>
-      <c r="G43" s="72"/>
-      <c r="H43" s="72"/>
-      <c r="I43" s="72"/>
-      <c r="J43" s="72"/>
-      <c r="K43" s="72"/>
-      <c r="L43" s="72"/>
-      <c r="M43" s="72"/>
-      <c r="N43" s="131"/>
-    </row>
-    <row r="44" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A44" s="71"/>
-      <c r="B44" s="72"/>
-      <c r="C44" s="72"/>
-      <c r="D44" s="72"/>
-      <c r="E44" s="72"/>
-      <c r="F44" s="72"/>
-      <c r="G44" s="72"/>
-      <c r="H44" s="72"/>
-      <c r="I44" s="72"/>
-      <c r="J44" s="72"/>
-      <c r="K44" s="72"/>
-      <c r="L44" s="72"/>
-      <c r="M44" s="72"/>
-      <c r="N44" s="131"/>
-    </row>
-    <row r="45" customFormat="1" ht="18" customHeight="1" spans="1:14">
-      <c r="A45" s="73"/>
-      <c r="B45" s="74"/>
-      <c r="C45" s="74"/>
-      <c r="D45" s="74"/>
-      <c r="E45" s="74"/>
-      <c r="F45" s="74"/>
-      <c r="G45" s="74"/>
-      <c r="H45" s="74"/>
-      <c r="I45" s="74"/>
-      <c r="J45" s="74"/>
-      <c r="K45" s="74"/>
-      <c r="L45" s="74"/>
-      <c r="M45" s="74"/>
-      <c r="N45" s="132"/>
-    </row>
-    <row r="46" customFormat="1" spans="1:14">
-      <c r="A46" s="36" t="s">
+      <c r="B39" s="36"/>
+      <c r="C39" s="37"/>
+      <c r="D39" s="74" t="s">
+        <v>18</v>
+      </c>
+      <c r="E39" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="B46" s="37"/>
-      <c r="C46" s="38"/>
-      <c r="D46" s="75" t="s">
+      <c r="F39" s="36"/>
+      <c r="G39" s="37"/>
+      <c r="H39" s="75" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="36" t="s">
+      <c r="I39" s="135"/>
+      <c r="J39" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F46" s="37"/>
-      <c r="G46" s="38"/>
-      <c r="H46" s="76" t="s">
-        <v>18</v>
-      </c>
-      <c r="I46" s="133"/>
-      <c r="J46" s="36" t="s">
+      <c r="K39" s="36"/>
+      <c r="L39" s="36"/>
+      <c r="M39" s="37"/>
+      <c r="N39" s="74" t="s">
         <v>38</v>
       </c>
-      <c r="K46" s="37"/>
-      <c r="L46" s="37"/>
-      <c r="M46" s="38"/>
-      <c r="N46" s="75" t="s">
+    </row>
+    <row r="40" customFormat="1" ht="32.25" customHeight="1" spans="1:14">
+      <c r="A40" s="76"/>
+      <c r="B40" s="77"/>
+      <c r="C40" s="78"/>
+      <c r="D40" s="79"/>
+      <c r="E40" s="80" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="47" customFormat="1" ht="32.25" customHeight="1" spans="1:14">
-      <c r="A47" s="25"/>
-      <c r="B47" s="26"/>
-      <c r="C47" s="27"/>
-      <c r="D47" s="77"/>
-      <c r="E47" s="78" t="s">
+      <c r="F40" s="81"/>
+      <c r="G40" s="82"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="136"/>
+      <c r="J40" s="76"/>
+      <c r="K40" s="77"/>
+      <c r="L40" s="77"/>
+      <c r="M40" s="78"/>
+      <c r="N40" s="79"/>
+    </row>
+    <row r="41" customFormat="1" ht="33" customHeight="1" spans="1:14">
+      <c r="A41" s="84"/>
+      <c r="B41" s="85"/>
+      <c r="C41" s="85"/>
+      <c r="D41" s="86"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="88"/>
+      <c r="G41" s="89"/>
+      <c r="H41" s="83"/>
+      <c r="I41" s="136"/>
+      <c r="J41" s="137"/>
+      <c r="K41" s="138"/>
+      <c r="L41" s="138"/>
+      <c r="M41" s="139"/>
+      <c r="N41" s="86"/>
+    </row>
+    <row r="42" customFormat="1" spans="1:14">
+      <c r="A42" s="35" t="s">
         <v>40</v>
       </c>
-      <c r="F47" s="79"/>
-      <c r="G47" s="80"/>
-      <c r="H47" s="81"/>
-      <c r="I47" s="134"/>
-      <c r="J47" s="25"/>
-      <c r="K47" s="26"/>
-      <c r="L47" s="26"/>
-      <c r="M47" s="27"/>
-      <c r="N47" s="77"/>
-    </row>
-    <row r="48" customFormat="1" ht="33" customHeight="1" spans="1:14">
-      <c r="A48" s="82"/>
-      <c r="B48" s="83"/>
-      <c r="C48" s="84"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12"/>
-      <c r="G48" s="86"/>
-      <c r="H48" s="81"/>
-      <c r="I48" s="134"/>
-      <c r="J48" s="82"/>
-      <c r="K48" s="83"/>
-      <c r="L48" s="83"/>
-      <c r="M48" s="84"/>
-      <c r="N48" s="85"/>
-    </row>
-    <row r="49" customFormat="1" spans="1:14">
-      <c r="A49" s="36" t="s">
+      <c r="B42" s="36"/>
+      <c r="C42" s="37"/>
+      <c r="D42" s="90"/>
+      <c r="E42" s="35" t="s">
         <v>41</v>
       </c>
-      <c r="B49" s="37"/>
-      <c r="C49" s="38"/>
-      <c r="D49" s="87"/>
-      <c r="E49" s="36" t="s">
+      <c r="F42" s="36"/>
+      <c r="G42" s="37"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="140"/>
+      <c r="J42" s="35" t="s">
+        <v>21</v>
+      </c>
+      <c r="K42" s="36"/>
+      <c r="L42" s="36"/>
+      <c r="M42" s="37"/>
+      <c r="N42" s="90"/>
+    </row>
+    <row r="43" customFormat="1" ht="22.5" customHeight="1" spans="1:14">
+      <c r="A43" s="92" t="s">
         <v>42</v>
       </c>
-      <c r="F49" s="37"/>
-      <c r="G49" s="38"/>
-      <c r="H49" s="88"/>
-      <c r="I49" s="135"/>
-      <c r="J49" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="K49" s="37"/>
-      <c r="L49" s="37"/>
-      <c r="M49" s="38"/>
-      <c r="N49" s="87"/>
-    </row>
-    <row r="50" customFormat="1" ht="22.5" customHeight="1" spans="1:14">
-      <c r="A50" s="89" t="s">
-        <v>43</v>
-      </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="89"/>
-      <c r="E50" s="89"/>
-      <c r="F50" s="89"/>
-      <c r="G50" s="89"/>
-      <c r="H50" s="89"/>
-      <c r="I50" s="89"/>
-      <c r="J50" s="89"/>
-      <c r="K50" s="89"/>
-      <c r="L50" s="89"/>
-      <c r="M50" s="89"/>
-      <c r="N50" s="89"/>
-    </row>
-    <row r="51" customFormat="1" spans="1:14">
-      <c r="A51" s="90"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="90"/>
-      <c r="E51" s="90"/>
-      <c r="F51" s="90"/>
-      <c r="G51" s="90"/>
-      <c r="H51" s="90"/>
-      <c r="I51" s="90"/>
-      <c r="J51" s="90"/>
-      <c r="K51" s="90"/>
-      <c r="L51" s="90"/>
-      <c r="M51" s="90"/>
-      <c r="N51" s="90"/>
-    </row>
-    <row r="52" customFormat="1" ht="14.45" customHeight="1" spans="1:5">
-      <c r="A52" s="91"/>
-      <c r="B52" s="91"/>
-      <c r="C52" s="92"/>
-      <c r="D52" s="92"/>
-      <c r="E52" s="93"/>
+      <c r="B43" s="92"/>
+      <c r="C43" s="92"/>
+      <c r="D43" s="92"/>
+      <c r="E43" s="92"/>
+      <c r="F43" s="92"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="92"/>
+      <c r="J43" s="92"/>
+      <c r="K43" s="92"/>
+      <c r="L43" s="92"/>
+      <c r="M43" s="92"/>
+      <c r="N43" s="92"/>
+    </row>
+    <row r="44" customFormat="1" spans="1:14">
+      <c r="A44" s="93"/>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+      <c r="G44" s="93"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="93"/>
+      <c r="J44" s="93"/>
+      <c r="K44" s="93"/>
+      <c r="L44" s="93"/>
+      <c r="M44" s="93"/>
+      <c r="N44" s="93"/>
+    </row>
+    <row r="45" customFormat="1" ht="14.45" customHeight="1" spans="1:5">
+      <c r="A45" s="94"/>
+      <c r="B45" s="94"/>
+      <c r="C45" s="95"/>
+      <c r="D45" s="95"/>
+      <c r="E45" s="96"/>
     </row>
   </sheetData>
-  <mergeCells count="103">
+  <mergeCells count="79">
     <mergeCell ref="B1:F1"/>
     <mergeCell ref="G1:M1"/>
     <mergeCell ref="A2:N2"/>
@@ -3175,58 +3073,34 @@
     <mergeCell ref="F32:H32"/>
     <mergeCell ref="M32:N32"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="C33:E33"/>
-    <mergeCell ref="F33:H33"/>
+    <mergeCell ref="C33:H33"/>
     <mergeCell ref="M33:N33"/>
-    <mergeCell ref="A34:B34"/>
-    <mergeCell ref="C34:E34"/>
-    <mergeCell ref="F34:H34"/>
-    <mergeCell ref="M34:N34"/>
-    <mergeCell ref="A35:B35"/>
-    <mergeCell ref="C35:E35"/>
-    <mergeCell ref="F35:H35"/>
-    <mergeCell ref="M35:N35"/>
-    <mergeCell ref="A36:B36"/>
-    <mergeCell ref="C36:E36"/>
-    <mergeCell ref="F36:H36"/>
-    <mergeCell ref="M36:N36"/>
-    <mergeCell ref="A37:B37"/>
-    <mergeCell ref="C37:E37"/>
-    <mergeCell ref="F37:H37"/>
-    <mergeCell ref="M37:N37"/>
+    <mergeCell ref="A34:N34"/>
+    <mergeCell ref="A35:N35"/>
+    <mergeCell ref="A36:N36"/>
+    <mergeCell ref="A37:N37"/>
     <mergeCell ref="A38:N38"/>
-    <mergeCell ref="A39:B39"/>
-    <mergeCell ref="C39:E39"/>
-    <mergeCell ref="F39:H39"/>
-    <mergeCell ref="M39:N39"/>
-    <mergeCell ref="A40:B40"/>
-    <mergeCell ref="C40:H40"/>
-    <mergeCell ref="M40:N40"/>
-    <mergeCell ref="A41:N41"/>
-    <mergeCell ref="A42:N42"/>
+    <mergeCell ref="A39:C39"/>
+    <mergeCell ref="E39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:M39"/>
+    <mergeCell ref="E40:G40"/>
+    <mergeCell ref="A41:C41"/>
+    <mergeCell ref="E41:G41"/>
+    <mergeCell ref="J41:M41"/>
+    <mergeCell ref="A42:C42"/>
+    <mergeCell ref="E42:G42"/>
+    <mergeCell ref="J42:M42"/>
     <mergeCell ref="A43:N43"/>
-    <mergeCell ref="A44:N44"/>
-    <mergeCell ref="A45:N45"/>
-    <mergeCell ref="A46:C46"/>
-    <mergeCell ref="E46:G46"/>
-    <mergeCell ref="H46:I46"/>
-    <mergeCell ref="J46:M46"/>
-    <mergeCell ref="E47:G47"/>
-    <mergeCell ref="A49:C49"/>
-    <mergeCell ref="E49:G49"/>
-    <mergeCell ref="J49:M49"/>
-    <mergeCell ref="A50:N50"/>
-    <mergeCell ref="C52:D52"/>
-    <mergeCell ref="D47:D49"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="D40:D42"/>
     <mergeCell ref="N18:N20"/>
-    <mergeCell ref="N47:N49"/>
+    <mergeCell ref="N40:N42"/>
     <mergeCell ref="F18:G20"/>
     <mergeCell ref="A22:B23"/>
     <mergeCell ref="M22:N23"/>
     <mergeCell ref="C22:E23"/>
     <mergeCell ref="F22:H23"/>
-    <mergeCell ref="A47:C48"/>
-    <mergeCell ref="J47:M48"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.5" bottom="0.5" header="0" footer="0"/>
